--- a/background information/GEO/GEO_mapping.xlsx
+++ b/background information/GEO/GEO_mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\background information\GEO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\sciebo - Eggels, Stella (s.eggels@fz-juelich.de)@fz-juelich.sciebo.de\SE\DataPLANT\Metadata checklists_k\DataPLANT_Sciebo\checklists and mappings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855EFF90-89E2-406E-ADF2-EF05AC412521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B0990B-75EC-4205-861F-BF61AA586F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{60BFCAF7-F63D-4737-85E9-88D1E08102D0}"/>
+    <workbookView xWindow="5136" yWindow="4368" windowWidth="17280" windowHeight="8964" xr2:uid="{60BFCAF7-F63D-4737-85E9-88D1E08102D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
   <si>
     <t>organism</t>
   </si>
@@ -92,18 +92,9 @@
     <t>single or paired end</t>
   </si>
   <si>
-    <t>high throughput sequencing instrument model</t>
-  </si>
-  <si>
-    <t>processed data file</t>
-  </si>
-  <si>
     <t>raw file</t>
   </si>
   <si>
-    <t>Output (Raw data file)</t>
-  </si>
-  <si>
     <t>Computation</t>
   </si>
   <si>
@@ -128,9 +119,6 @@
     <t>processed data files format and content</t>
   </si>
   <si>
-    <t>Output (derived data file)</t>
-  </si>
-  <si>
     <t>Swate</t>
   </si>
   <si>
@@ -144,6 +132,15 @@
   </si>
   <si>
     <t>Sample description</t>
+  </si>
+  <si>
+    <t>library strategy</t>
+  </si>
+  <si>
+    <t>Output (Data)</t>
+  </si>
+  <si>
+    <t>next generation sequencing instrument model</t>
   </si>
 </sst>
 </file>
@@ -205,12 +202,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -547,7 +545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26489AA6-53D4-4F3D-AC53-08EF4EF0092B}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -561,7 +559,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -569,10 +567,10 @@
         <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -591,48 +589,51 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>0</v>
+      <c r="A6" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
       </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
@@ -640,21 +641,18 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
@@ -662,46 +660,46 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
       </c>
+      <c r="G14" s="2"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
         <v>13</v>
@@ -709,10 +707,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
         <v>12</v>
@@ -720,13 +718,13 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -734,21 +732,21 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
